--- a/source/1st_project/프로젝트관리.xlsx
+++ b/source/1st_project/프로젝트관리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ai\source\1st_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA8B80B-9414-4B19-9C76-2E9F8BFEFEFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7EDE2E-3150-4C39-AF22-010C1A95CAEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -601,47 +601,47 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1026,7 +1026,7 @@
   <dimension ref="A1:Y58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AJ35" sqref="AJ35"/>
+      <selection activeCell="AC15" sqref="AC15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
@@ -1043,39 +1043,39 @@
     <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
       <c r="O2" s="6"/>
       <c r="P2" s="2"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
       <c r="O3" s="6"/>
       <c r="P3" s="2"/>
     </row>
@@ -1118,31 +1118,31 @@
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="13"/>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="38" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="14"/>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="45" t="s">
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
       <c r="O6" s="8"/>
       <c r="P6" s="2"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="42"/>
+      <c r="C7" s="39"/>
       <c r="D7" s="16"/>
       <c r="E7" s="17">
         <v>1</v>
@@ -1236,7 +1236,7 @@
     <row r="11" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="19"/>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="43" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="23"/>
@@ -1256,7 +1256,7 @@
     <row r="12" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="19"/>
-      <c r="C12" s="46"/>
+      <c r="C12" s="43"/>
       <c r="D12" s="23"/>
       <c r="E12" s="32"/>
       <c r="F12" s="20"/>
@@ -1292,7 +1292,7 @@
     <row r="14" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="19"/>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="35" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="23"/>
@@ -1312,7 +1312,7 @@
     <row r="15" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="19"/>
-      <c r="C15" s="38"/>
+      <c r="C15" s="35"/>
       <c r="D15" s="23"/>
       <c r="E15" s="32"/>
       <c r="F15" s="20"/>
@@ -1368,7 +1368,7 @@
     <row r="18" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="19"/>
-      <c r="C18" s="36" t="s">
+      <c r="C18" s="45" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="23"/>
@@ -1388,7 +1388,7 @@
     <row r="19" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="19"/>
-      <c r="C19" s="36"/>
+      <c r="C19" s="45"/>
       <c r="D19" s="23"/>
       <c r="E19" s="20"/>
       <c r="F19" s="32"/>
@@ -1424,7 +1424,7 @@
     <row r="21" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="19"/>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="45" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="23"/>
@@ -1444,7 +1444,7 @@
     <row r="22" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="19"/>
-      <c r="C22" s="36"/>
+      <c r="C22" s="45"/>
       <c r="D22" s="23"/>
       <c r="E22" s="20"/>
       <c r="F22" s="20"/>
@@ -1480,7 +1480,7 @@
     <row r="24" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="19"/>
-      <c r="C24" s="36" t="s">
+      <c r="C24" s="45" t="s">
         <v>10</v>
       </c>
       <c r="D24" s="23"/>
@@ -1500,7 +1500,7 @@
     <row r="25" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="19"/>
-      <c r="C25" s="36"/>
+      <c r="C25" s="45"/>
       <c r="D25" s="23"/>
       <c r="E25" s="20"/>
       <c r="F25" s="20"/>
@@ -1536,7 +1536,7 @@
     <row r="27" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="19"/>
-      <c r="C27" s="36" t="s">
+      <c r="C27" s="45" t="s">
         <v>4</v>
       </c>
       <c r="D27" s="23"/>
@@ -1556,7 +1556,7 @@
     <row r="28" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="19"/>
-      <c r="C28" s="36"/>
+      <c r="C28" s="45"/>
       <c r="D28" s="23"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -1613,7 +1613,7 @@
     <row r="31" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31" s="19"/>
-      <c r="C31" s="37" t="s">
+      <c r="C31" s="46" t="s">
         <v>11</v>
       </c>
       <c r="D31" s="23"/>
@@ -1633,7 +1633,7 @@
     <row r="32" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="B32" s="19"/>
-      <c r="C32" s="37"/>
+      <c r="C32" s="46"/>
       <c r="D32" s="23"/>
       <c r="E32" s="20"/>
       <c r="F32" s="32"/>
@@ -1669,7 +1669,7 @@
     <row r="34" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="B34" s="19"/>
-      <c r="C34" s="37" t="s">
+      <c r="C34" s="46" t="s">
         <v>12</v>
       </c>
       <c r="D34" s="23"/>
@@ -1689,7 +1689,7 @@
     <row r="35" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
       <c r="B35" s="19"/>
-      <c r="C35" s="37"/>
+      <c r="C35" s="46"/>
       <c r="D35" s="23"/>
       <c r="E35" s="20"/>
       <c r="F35" s="20"/>
@@ -1745,7 +1745,7 @@
     <row r="38" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
       <c r="B38" s="19"/>
-      <c r="C38" s="34" t="s">
+      <c r="C38" s="44" t="s">
         <v>13</v>
       </c>
       <c r="D38" s="23"/>
@@ -1765,7 +1765,7 @@
     <row r="39" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39" s="19"/>
-      <c r="C39" s="34"/>
+      <c r="C39" s="44"/>
       <c r="D39" s="23"/>
       <c r="E39" s="20"/>
       <c r="F39" s="20"/>
@@ -1801,7 +1801,7 @@
     <row r="41" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="19"/>
-      <c r="C41" s="34" t="s">
+      <c r="C41" s="44" t="s">
         <v>16</v>
       </c>
       <c r="D41" s="23"/>
@@ -1821,7 +1821,7 @@
     <row r="42" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
       <c r="B42" s="19"/>
-      <c r="C42" s="34"/>
+      <c r="C42" s="44"/>
       <c r="D42" s="23"/>
       <c r="E42" s="20"/>
       <c r="F42" s="20"/>
@@ -1857,7 +1857,7 @@
     <row r="44" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
       <c r="B44" s="19"/>
-      <c r="C44" s="34" t="s">
+      <c r="C44" s="44" t="s">
         <v>17</v>
       </c>
       <c r="D44" s="23"/>
@@ -1877,7 +1877,7 @@
     <row r="45" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3"/>
       <c r="B45" s="19"/>
-      <c r="C45" s="34"/>
+      <c r="C45" s="44"/>
       <c r="D45" s="23"/>
       <c r="E45" s="20"/>
       <c r="F45" s="20"/>
@@ -1913,7 +1913,7 @@
     <row r="47" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3"/>
       <c r="B47" s="19"/>
-      <c r="C47" s="34" t="s">
+      <c r="C47" s="44" t="s">
         <v>18</v>
       </c>
       <c r="D47" s="23"/>
@@ -1933,7 +1933,7 @@
     <row r="48" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3"/>
       <c r="B48" s="19"/>
-      <c r="C48" s="34"/>
+      <c r="C48" s="44"/>
       <c r="D48" s="23"/>
       <c r="E48" s="20"/>
       <c r="F48" s="20"/>
@@ -1969,7 +1969,7 @@
     <row r="50" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3"/>
       <c r="B50" s="19"/>
-      <c r="C50" s="34" t="s">
+      <c r="C50" s="44" t="s">
         <v>15</v>
       </c>
       <c r="D50" s="23"/>
@@ -1989,7 +1989,7 @@
     <row r="51" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3"/>
       <c r="B51" s="19"/>
-      <c r="C51" s="34"/>
+      <c r="C51" s="44"/>
       <c r="D51" s="23"/>
       <c r="E51" s="20"/>
       <c r="F51" s="20"/>
@@ -2025,7 +2025,7 @@
     <row r="53" spans="1:16" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3"/>
       <c r="B53" s="19"/>
-      <c r="C53" s="35" t="s">
+      <c r="C53" s="47" t="s">
         <v>14</v>
       </c>
       <c r="D53" s="22"/>
@@ -2045,7 +2045,7 @@
     <row r="54" spans="1:16" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
       <c r="B54" s="19"/>
-      <c r="C54" s="35"/>
+      <c r="C54" s="47"/>
       <c r="D54" s="22"/>
       <c r="E54" s="20"/>
       <c r="F54" s="20"/>
@@ -2112,7 +2112,7 @@
         <v>21</v>
       </c>
       <c r="M57" s="31"/>
-      <c r="N57" s="47" t="s">
+      <c r="N57" s="34" t="s">
         <v>2</v>
       </c>
       <c r="O57" s="2"/>
@@ -2137,12 +2137,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B2:N3"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C53:C54"/>
     <mergeCell ref="C38:C39"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="C21:C22"/>
@@ -2150,11 +2149,12 @@
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B2:N3"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="C11:C12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
